--- a/9isma.xlsx
+++ b/9isma.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\medte\OneDrive\Desktop\travail en binome avec youssef\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\medte\OneDrive\Desktop\travail_en_binome_avec_youssef\uml\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -105,7 +105,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,6 +136,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -332,15 +344,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -351,6 +357,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -360,8 +368,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,7 +659,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -666,17 +680,17 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -685,30 +699,30 @@
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="9"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="7"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="H3" s="6"/>
-      <c r="N3" s="11"/>
+      <c r="H3" s="4"/>
+      <c r="N3" s="9"/>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="20" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -717,38 +731,38 @@
       <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="13"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="11"/>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -756,7 +770,7 @@
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>18</v>
       </c>
     </row>
